--- a/Datasets/Stoichiometry_Processed_Matrices.xlsx
+++ b/Datasets/Stoichiometry_Processed_Matrices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,36 @@
           <t>FP_KSpar</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Plag</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Biotite</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Calcite</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Kaolinite</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Smectite</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_KSpar</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,22 +507,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4415.565417461276</v>
+        <v>0.09268472</v>
       </c>
       <c r="C2" t="n">
-        <v>-504.0441984483173</v>
+        <v>-0.01058012</v>
       </c>
       <c r="D2" t="n">
-        <v>-1745.0850841035</v>
+        <v>-0.03663013</v>
       </c>
       <c r="E2" t="n">
-        <v>-4013.016997661663</v>
+        <v>-0.08423505000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1404.69207151335</v>
+        <v>0.02948512</v>
       </c>
       <c r="G2" t="n">
-        <v>541.8887912388533</v>
+        <v>0.01137449</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-145.49198047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21.52610199</v>
+      </c>
+      <c r="J2" t="n">
+        <v>113.30297282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>333.06509989</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-157.76058837</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-64.64160587000001</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +550,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1197.942453544196</v>
+        <v>0.10975252</v>
       </c>
       <c r="C3" t="n">
-        <v>-76.31032536950151</v>
+        <v>-0.00699136</v>
       </c>
       <c r="D3" t="n">
-        <v>-385.7507387743572</v>
+        <v>-0.03534153</v>
       </c>
       <c r="E3" t="n">
-        <v>-1051.278452929263</v>
+        <v>-0.09631552</v>
       </c>
       <c r="F3" t="n">
-        <v>302.4033576581211</v>
+        <v>0.02770545</v>
       </c>
       <c r="G3" t="n">
-        <v>112.9937058708043</v>
+        <v>0.0103522</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-137.80705902</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.37791945</v>
+      </c>
+      <c r="J3" t="n">
+        <v>87.4408239</v>
+      </c>
+      <c r="K3" t="n">
+        <v>304.62017808</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-118.57326295</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-47.05859945</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +593,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322.927227133616</v>
+        <v>0.06617017</v>
       </c>
       <c r="C4" t="n">
-        <v>-79.9382113048399</v>
+        <v>-0.01637993</v>
       </c>
       <c r="D4" t="n">
-        <v>-48.79846857746916</v>
+        <v>-0.00999917</v>
       </c>
       <c r="E4" t="n">
-        <v>-369.0907965415835</v>
+        <v>-0.07562943</v>
       </c>
       <c r="F4" t="n">
-        <v>212.9090312150278</v>
+        <v>0.04362663</v>
       </c>
       <c r="G4" t="n">
-        <v>61.99121807524865</v>
+        <v>0.01270246</v>
+      </c>
+      <c r="H4" t="n">
+        <v>224.87568701</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-72.14999527000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-66.96008539</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-647.4056001500001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>505.35501204</v>
+      </c>
+      <c r="M4" t="n">
+        <v>156.28498175</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +636,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>779.2728851400059</v>
+        <v>0.09205898999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-23.88750602206903</v>
+        <v>-0.00282194</v>
       </c>
       <c r="D5" t="n">
-        <v>-212.6727195857375</v>
+        <v>-0.02512398</v>
       </c>
       <c r="E5" t="n">
-        <v>-720.4714031114071</v>
+        <v>-0.08511251</v>
       </c>
       <c r="F5" t="n">
-        <v>217.3659285567953</v>
+        <v>0.02567841</v>
       </c>
       <c r="G5" t="n">
-        <v>60.39281502241255</v>
+        <v>0.00713447</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-148.15323165</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.88621898</v>
+      </c>
+      <c r="J5" t="n">
+        <v>79.67192578</v>
+      </c>
+      <c r="K5" t="n">
+        <v>345.01955251</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-140.85675806</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-41.56770756</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +679,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260.9787823112777</v>
+        <v>0.14823307</v>
       </c>
       <c r="C6" t="n">
-        <v>19.81764611405062</v>
+        <v>0.0112562</v>
       </c>
       <c r="D6" t="n">
-        <v>6.986866014203866</v>
+        <v>0.00396846</v>
       </c>
       <c r="E6" t="n">
-        <v>-213.2888380659751</v>
+        <v>-0.12114571</v>
       </c>
       <c r="F6" t="n">
-        <v>28.76095136951432</v>
+        <v>0.0163359</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.255407743071406</v>
+        <v>-0.00184904</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-173.32969163</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-17.05940477</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-9.14370371</v>
+      </c>
+      <c r="K6" t="n">
+        <v>356.81350893</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-65.10819650000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.82748768</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +722,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.4965937681605</v>
+        <v>0.06018397</v>
       </c>
       <c r="C7" t="n">
-        <v>-40.01515485741797</v>
+        <v>-0.01326896</v>
       </c>
       <c r="D7" t="n">
-        <v>11.07443308986875</v>
+        <v>0.00367226</v>
       </c>
       <c r="E7" t="n">
-        <v>-236.5194791686603</v>
+        <v>-0.07842947</v>
       </c>
       <c r="F7" t="n">
-        <v>143.1480338419576</v>
+        <v>0.04746765</v>
       </c>
       <c r="G7" t="n">
-        <v>40.81557332609138</v>
+        <v>0.01353438</v>
+      </c>
+      <c r="H7" t="n">
+        <v>94.83536214999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-27.10006741</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.40237442</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-311.29642864</v>
+      </c>
+      <c r="L7" t="n">
+        <v>254.94815257</v>
+      </c>
+      <c r="M7" t="n">
+        <v>77.2106069</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +765,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>681.3172502896413</v>
+        <v>0.08653522</v>
       </c>
       <c r="C8" t="n">
-        <v>-45.38370495039491</v>
+        <v>-0.00576426</v>
       </c>
       <c r="D8" t="n">
-        <v>-184.7474835511703</v>
+        <v>-0.02346508</v>
       </c>
       <c r="E8" t="n">
-        <v>-658.3187895918247</v>
+        <v>-0.08361415</v>
       </c>
       <c r="F8" t="n">
-        <v>231.2828992325102</v>
+        <v>0.02937562</v>
       </c>
       <c r="G8" t="n">
-        <v>75.84982857123848</v>
+        <v>0.00963381</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-202.27197366</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.46346086</v>
+      </c>
+      <c r="J8" t="n">
+        <v>108.0778819</v>
+      </c>
+      <c r="K8" t="n">
+        <v>492.29788957</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-234.04237883</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-81.52487984</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +808,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10039.35113761708</v>
+        <v>0.06405110999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-1672.254269924197</v>
+        <v>-0.01066899</v>
       </c>
       <c r="D9" t="n">
-        <v>-4459.587868975762</v>
+        <v>-0.02845219</v>
       </c>
       <c r="E9" t="n">
-        <v>-10735.22646096163</v>
+        <v>-0.0684908</v>
       </c>
       <c r="F9" t="n">
-        <v>5148.317470340518</v>
+        <v>0.03284629</v>
       </c>
       <c r="G9" t="n">
-        <v>1779.399991903989</v>
+        <v>0.01135258</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-253.1287803</v>
+      </c>
+      <c r="I9" t="n">
+        <v>54.64900217</v>
+      </c>
+      <c r="J9" t="n">
+        <v>221.56572263</v>
+      </c>
+      <c r="K9" t="n">
+        <v>681.79292234</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-442.45168731</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-162.42717952</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +851,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>399.1270245676246</v>
+        <v>0.18842076</v>
       </c>
       <c r="C10" t="n">
-        <v>21.29622042616297</v>
+        <v>0.01005357</v>
       </c>
       <c r="D10" t="n">
-        <v>-42.74914573256594</v>
+        <v>-0.02018111</v>
       </c>
       <c r="E10" t="n">
-        <v>-282.5766240548791</v>
+        <v>-0.13339939</v>
       </c>
       <c r="F10" t="n">
-        <v>2.641067983649198</v>
+        <v>0.0012468</v>
       </c>
       <c r="G10" t="n">
-        <v>2.261456810008142</v>
+        <v>0.00106759</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-113.35912976</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-7.8395646</v>
+      </c>
+      <c r="J10" t="n">
+        <v>23.92460496</v>
+      </c>
+      <c r="K10" t="n">
+        <v>202.15616823</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2.55675788</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-2.32532094</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +894,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>459.7574898373236</v>
+        <v>0.26791809</v>
       </c>
       <c r="C11" t="n">
-        <v>54.25454547574782</v>
+        <v>0.03161618</v>
       </c>
       <c r="D11" t="n">
-        <v>-49.00535478145696</v>
+        <v>-0.02855728</v>
       </c>
       <c r="E11" t="n">
-        <v>-291.2164444691643</v>
+        <v>-0.16970284</v>
       </c>
       <c r="F11" t="n">
-        <v>-45.48005155418863</v>
+        <v>-0.02650295</v>
       </c>
       <c r="G11" t="n">
-        <v>-28.31018450826158</v>
+        <v>-0.01649742</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-82.46270861000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-12.61272577</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17.31985639</v>
+      </c>
+      <c r="K11" t="n">
+        <v>131.56793974</v>
+      </c>
+      <c r="L11" t="n">
+        <v>27.80445488</v>
+      </c>
+      <c r="M11" t="n">
+        <v>18.38318337</v>
       </c>
     </row>
     <row r="12">
@@ -727,22 +937,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>366.6039979682565</v>
+        <v>0.1843465</v>
       </c>
       <c r="C12" t="n">
-        <v>44.9671591745999</v>
+        <v>0.0226117</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.21371301089806</v>
+        <v>-0.01519294</v>
       </c>
       <c r="E12" t="n">
-        <v>-278.096149503768</v>
+        <v>-0.13984041</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8824806789278893</v>
+        <v>0.00044375</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.143775307118264</v>
+        <v>-0.00208369</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-105.60993129</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-16.78985927</v>
+      </c>
+      <c r="J12" t="n">
+        <v>17.15077024</v>
+      </c>
+      <c r="K12" t="n">
+        <v>201.79385408</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.86651767</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.3216839</v>
       </c>
     </row>
     <row r="13">
@@ -752,22 +980,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.8871633613586</v>
+        <v>0.17400905</v>
       </c>
       <c r="C13" t="n">
-        <v>41.56979332044931</v>
+        <v>0.01822563</v>
       </c>
       <c r="D13" t="n">
-        <v>-42.00930679936515</v>
+        <v>-0.01841833</v>
       </c>
       <c r="E13" t="n">
-        <v>-302.723909155877</v>
+        <v>-0.13272462</v>
       </c>
       <c r="F13" t="n">
-        <v>8.101724906741559</v>
+        <v>0.00355208</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.825465633307275</v>
+        <v>-0.00080035</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-106.25378266</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-14.4244497</v>
+      </c>
+      <c r="J13" t="n">
+        <v>22.16127938</v>
+      </c>
+      <c r="K13" t="n">
+        <v>204.14063736</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-7.39297936</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.76929498</v>
       </c>
     </row>
     <row r="14">
@@ -777,22 +1023,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>388.2693969004877</v>
+        <v>0.16816082</v>
       </c>
       <c r="C14" t="n">
-        <v>37.83863391759898</v>
+        <v>0.01638804</v>
       </c>
       <c r="D14" t="n">
-        <v>-40.63607563707842</v>
+        <v>-0.01759963</v>
       </c>
       <c r="E14" t="n">
-        <v>-301.5923957306346</v>
+        <v>-0.13062071</v>
       </c>
       <c r="F14" t="n">
-        <v>14.81841288410817</v>
+        <v>0.00641791</v>
       </c>
       <c r="G14" t="n">
-        <v>1.302027665518142</v>
+        <v>0.00056391</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-111.82590908</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-14.12501007</v>
+      </c>
+      <c r="J14" t="n">
+        <v>23.06178943</v>
+      </c>
+      <c r="K14" t="n">
+        <v>218.79382438</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-14.54707311</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1.35762156</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +1066,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>308.6937481142472</v>
+        <v>0.28108871</v>
       </c>
       <c r="C15" t="n">
-        <v>23.87946138996188</v>
+        <v>0.02174403</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.763048368095644</v>
+        <v>-0.00706884</v>
       </c>
       <c r="E15" t="n">
-        <v>-205.7515158139465</v>
+        <v>-0.18735212</v>
       </c>
       <c r="F15" t="n">
-        <v>-16.14384934949933</v>
+        <v>-0.01470018</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.914795972667616</v>
+        <v>-0.00265414</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-118.96054707</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-11.9273424</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.89493984</v>
+      </c>
+      <c r="K15" t="n">
+        <v>199.72092019</v>
+      </c>
+      <c r="L15" t="n">
+        <v>21.20541952</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.06660993</v>
       </c>
     </row>
     <row r="16">
@@ -827,22 +1109,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>271.9525367982387</v>
+        <v>0.36010001</v>
       </c>
       <c r="C16" t="n">
-        <v>42.19112506571033</v>
+        <v>0.05586646</v>
       </c>
       <c r="D16" t="n">
-        <v>10.31082069701012</v>
+        <v>0.01365285</v>
       </c>
       <c r="E16" t="n">
-        <v>-177.448874385583</v>
+        <v>-0.23496505</v>
       </c>
       <c r="F16" t="n">
-        <v>-32.02428578284511</v>
+        <v>-0.04240426</v>
       </c>
       <c r="G16" t="n">
-        <v>-14.98132239253101</v>
+        <v>-0.01983719</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-103.24366509</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-20.76038707</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-7.71321611</v>
+      </c>
+      <c r="K16" t="n">
+        <v>169.68714549</v>
+      </c>
+      <c r="L16" t="n">
+        <v>41.43949035</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20.59063242</v>
       </c>
     </row>
     <row r="17">
@@ -852,22 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>328.3537272417892</v>
+        <v>0.25615284</v>
       </c>
       <c r="C17" t="n">
-        <v>24.85604258989569</v>
+        <v>0.01939051</v>
       </c>
       <c r="D17" t="n">
-        <v>-15.46484858442105</v>
+        <v>-0.01206432</v>
       </c>
       <c r="E17" t="n">
-        <v>-228.2128404887735</v>
+        <v>-0.17803169</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.79251472924334</v>
+        <v>-0.00529893</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.739566029246957</v>
+        <v>-0.00213717</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-118.1929352</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-11.59646424</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10.96900428</v>
+      </c>
+      <c r="K17" t="n">
+        <v>206.91646023</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.33383332</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.57010161</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +1195,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>410.9835685196343</v>
+        <v>0.18537969</v>
       </c>
       <c r="C18" t="n">
-        <v>33.89665799837137</v>
+        <v>0.01528955</v>
       </c>
       <c r="D18" t="n">
-        <v>-44.95749496970087</v>
+        <v>-0.02027869</v>
       </c>
       <c r="E18" t="n">
-        <v>-297.4344784309137</v>
+        <v>-0.13416184</v>
       </c>
       <c r="F18" t="n">
-        <v>1.494460323681128</v>
+        <v>0.0006741</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.982713441072216</v>
+        <v>-0.00179646</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-104.79107299</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-11.20213368</v>
+      </c>
+      <c r="J18" t="n">
+        <v>22.5877982</v>
+      </c>
+      <c r="K18" t="n">
+        <v>191.02778275</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-1.29881971</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.67644544</v>
       </c>
     </row>
     <row r="19">
@@ -902,22 +1238,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>294.4028376461887</v>
+        <v>0.22923169</v>
       </c>
       <c r="C19" t="n">
-        <v>56.66301699993417</v>
+        <v>0.04411968</v>
       </c>
       <c r="D19" t="n">
-        <v>4.698289518066347</v>
+        <v>0.00365824</v>
       </c>
       <c r="E19" t="n">
-        <v>-201.4557388100607</v>
+        <v>-0.15686004</v>
       </c>
       <c r="F19" t="n">
-        <v>-32.17806924018809</v>
+        <v>-0.0250549</v>
       </c>
       <c r="G19" t="n">
-        <v>-22.13033611394048</v>
+        <v>-0.0172314</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-91.96168372</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-22.94080525</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-2.891856</v>
+      </c>
+      <c r="K19" t="n">
+        <v>158.50755321</v>
+      </c>
+      <c r="L19" t="n">
+        <v>34.26017351</v>
+      </c>
+      <c r="M19" t="n">
+        <v>25.02661826</v>
       </c>
     </row>
     <row r="20">
@@ -927,22 +1281,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>249.9609962853013</v>
+        <v>0.01844308</v>
       </c>
       <c r="C20" t="n">
-        <v>-213.7582469320014</v>
+        <v>-0.0157719</v>
       </c>
       <c r="D20" t="n">
-        <v>-73.23873104886309</v>
+        <v>-0.00540383</v>
       </c>
       <c r="E20" t="n">
-        <v>-544.0529781769151</v>
+        <v>-0.04014231</v>
       </c>
       <c r="F20" t="n">
-        <v>531.7796521985807</v>
+        <v>0.03923673</v>
       </c>
       <c r="G20" t="n">
-        <v>149.3093076738975</v>
+        <v>0.01101661</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30.8092019</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-34.14877439</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-17.78774842</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-168.90977729</v>
+      </c>
+      <c r="L20" t="n">
+        <v>223.41100935</v>
+      </c>
+      <c r="M20" t="n">
+        <v>66.62608885</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +1324,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>372.2114850407516</v>
+        <v>0.17842209</v>
       </c>
       <c r="C21" t="n">
-        <v>41.21205811580984</v>
+        <v>0.01975528</v>
       </c>
       <c r="D21" t="n">
-        <v>-29.47329062741785</v>
+        <v>-0.01412822</v>
       </c>
       <c r="E21" t="n">
-        <v>-254.80722619674</v>
+        <v>-0.12214356</v>
       </c>
       <c r="F21" t="n">
-        <v>-22.65554697200367</v>
+        <v>-0.01086009</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.487479360399941</v>
+        <v>-0.00310982</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-99.2607096</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-14.2447867</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15.48774532</v>
+      </c>
+      <c r="K21" t="n">
+        <v>171.16097124</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20.59334103</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.26343871</v>
       </c>
     </row>
     <row r="22">
@@ -977,22 +1367,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>352.5518576824756</v>
+        <v>0.17293981</v>
       </c>
       <c r="C22" t="n">
-        <v>46.20754997244579</v>
+        <v>0.02266652</v>
       </c>
       <c r="D22" t="n">
-        <v>-24.06179275114879</v>
+        <v>-0.01180321</v>
       </c>
       <c r="E22" t="n">
-        <v>-248.2225935409233</v>
+        <v>-0.12176242</v>
       </c>
       <c r="F22" t="n">
-        <v>-21.40161049128669</v>
+        <v>-0.01049829</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.073410871562638</v>
+        <v>-0.0024887</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-100.29181223</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-17.03724836</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13.48784043</v>
+      </c>
+      <c r="K22" t="n">
+        <v>177.86445936</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20.75169525</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.22506555</v>
       </c>
     </row>
     <row r="23">
@@ -1002,22 +1410,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>325.599618396622</v>
+        <v>0.01733112</v>
       </c>
       <c r="C23" t="n">
-        <v>-238.3332812103195</v>
+        <v>-0.01268608</v>
       </c>
       <c r="D23" t="n">
-        <v>-115.3745137569083</v>
+        <v>-0.00614119</v>
       </c>
       <c r="E23" t="n">
-        <v>-667.0740853280167</v>
+        <v>-0.03550722</v>
       </c>
       <c r="F23" t="n">
-        <v>624.0248707003237</v>
+        <v>0.03321579</v>
       </c>
       <c r="G23" t="n">
-        <v>171.1573911982988</v>
+        <v>0.009110419999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>38.04976477</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-36.0991372</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-26.5674541</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-196.35752731</v>
+      </c>
+      <c r="L23" t="n">
+        <v>248.5619468</v>
+      </c>
+      <c r="M23" t="n">
+        <v>72.41240704000001</v>
       </c>
     </row>
     <row r="24">
@@ -1027,22 +1453,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1608.197923833313</v>
+        <v>0.06989392</v>
       </c>
       <c r="C24" t="n">
-        <v>-109.683437535295</v>
+        <v>-0.00476695</v>
       </c>
       <c r="D24" t="n">
-        <v>-594.9586305130534</v>
+        <v>-0.02585751</v>
       </c>
       <c r="E24" t="n">
-        <v>-1590.366667156618</v>
+        <v>-0.06911895999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>567.2950078435559</v>
+        <v>0.02465522</v>
       </c>
       <c r="G24" t="n">
-        <v>219.5158035280974</v>
+        <v>0.009540379999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-163.45312148</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14.44903409</v>
+      </c>
+      <c r="J24" t="n">
+        <v>119.15505093</v>
+      </c>
+      <c r="K24" t="n">
+        <v>407.15182184</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-196.52931358</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-80.7734718</v>
       </c>
     </row>
     <row r="25">
@@ -1052,22 +1496,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.8622218977634</v>
+        <v>0.0474976</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.36463723676666</v>
+        <v>-0.00413987</v>
       </c>
       <c r="D25" t="n">
-        <v>29.84554493476715</v>
+        <v>0.00999274</v>
       </c>
       <c r="E25" t="n">
-        <v>-179.455440666466</v>
+        <v>-0.06008437</v>
       </c>
       <c r="F25" t="n">
-        <v>88.46874201616222</v>
+        <v>0.02962066</v>
       </c>
       <c r="G25" t="n">
-        <v>31.64356905453988</v>
+        <v>0.01059474</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95.38315913</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-10.77532468</v>
+      </c>
+      <c r="J25" t="n">
+        <v>39.54179896</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-303.92538147</v>
+      </c>
+      <c r="L25" t="n">
+        <v>202.74934058</v>
+      </c>
+      <c r="M25" t="n">
+        <v>77.02640748</v>
       </c>
     </row>
     <row r="26">
@@ -1077,22 +1539,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>375.2251034458676</v>
+        <v>0.11545054</v>
       </c>
       <c r="C26" t="n">
-        <v>10.87330190532629</v>
+        <v>0.00334553</v>
       </c>
       <c r="D26" t="n">
-        <v>-42.46055150837395</v>
+        <v>-0.01306441</v>
       </c>
       <c r="E26" t="n">
-        <v>-310.2050419710588</v>
+        <v>-0.09544494000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>53.1670030304945</v>
+        <v>0.0163586</v>
       </c>
       <c r="G26" t="n">
-        <v>13.40018509774441</v>
+        <v>0.00412301</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-152.54199666</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-5.72931932</v>
+      </c>
+      <c r="J26" t="n">
+        <v>34.01379874</v>
+      </c>
+      <c r="K26" t="n">
+        <v>317.65214271</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-73.67232482</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-19.72230064</v>
       </c>
     </row>
     <row r="27">
@@ -1102,22 +1582,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1261.598672942891</v>
+        <v>0.08013265999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-86.77490055875974</v>
+        <v>-0.00551166</v>
       </c>
       <c r="D27" t="n">
-        <v>-440.8945184182263</v>
+        <v>-0.02800419</v>
       </c>
       <c r="E27" t="n">
-        <v>-1176.093493901522</v>
+        <v>-0.07470164999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>367.879806471185</v>
+        <v>0.02336653</v>
       </c>
       <c r="G27" t="n">
-        <v>174.2844334644318</v>
+        <v>0.01106998</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-158.25796568</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.10855453</v>
+      </c>
+      <c r="J27" t="n">
+        <v>108.98105826</v>
+      </c>
+      <c r="K27" t="n">
+        <v>371.61359945</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-157.29501475</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-79.1502318</v>
       </c>
     </row>
     <row r="28">
@@ -1127,22 +1625,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>281.8728285912784</v>
+        <v>0.24338136</v>
       </c>
       <c r="C28" t="n">
-        <v>22.10466386763547</v>
+        <v>0.01908614</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.405795272329375</v>
+        <v>-0.00207727</v>
       </c>
       <c r="E28" t="n">
-        <v>-194.777743326976</v>
+        <v>-0.16817964</v>
       </c>
       <c r="F28" t="n">
-        <v>-11.6117356583393</v>
+        <v>-0.01002608</v>
       </c>
       <c r="G28" t="n">
-        <v>4.817781798730826</v>
+        <v>0.00415988</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-136.18778205</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-13.84244765</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.29042232</v>
+      </c>
+      <c r="K28" t="n">
+        <v>237.04437787</v>
+      </c>
+      <c r="L28" t="n">
+        <v>19.12259062</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-8.42716111</v>
       </c>
     </row>
     <row r="29">
@@ -1152,22 +1668,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>199.1100145355161</v>
+        <v>0.20352104</v>
       </c>
       <c r="C29" t="n">
-        <v>1.138411955191453</v>
+        <v>0.00116363</v>
       </c>
       <c r="D29" t="n">
-        <v>25.02798805124504</v>
+        <v>0.02558245</v>
       </c>
       <c r="E29" t="n">
-        <v>-186.3991780045558</v>
+        <v>-0.19052862</v>
       </c>
       <c r="F29" t="n">
-        <v>57.70880031036688</v>
+        <v>0.05898727</v>
       </c>
       <c r="G29" t="n">
-        <v>3.413963152236335</v>
+        <v>0.0034896</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1887.03481742</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-13.98396403</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-467.39570194</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4449.75600917</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-1864.20431588</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-117.13720991</v>
       </c>
     </row>
     <row r="30">
@@ -1177,22 +1711,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>515.0724532134751</v>
+        <v>0.14738015</v>
       </c>
       <c r="C30" t="n">
-        <v>55.13635730002243</v>
+        <v>0.01577643</v>
       </c>
       <c r="D30" t="n">
-        <v>-101.378176738909</v>
+        <v>-0.02900782</v>
       </c>
       <c r="E30" t="n">
-        <v>-402.1663823723775</v>
+        <v>-0.1150738</v>
       </c>
       <c r="F30" t="n">
-        <v>4.408302416165259</v>
+        <v>0.00126137</v>
       </c>
       <c r="G30" t="n">
-        <v>28.92744618162373</v>
+        <v>0.00827715</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-101.69667704</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-14.10978999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>39.4416324</v>
+      </c>
+      <c r="K30" t="n">
+        <v>200.00902801</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-2.96670574</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-20.67748763</v>
       </c>
     </row>
   </sheetData>
